--- a/Team-Data/2008-09/2-8-2008-09.xlsx
+++ b/Team-Data/2008-09/2-8-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,10 +811,10 @@
         <v>1.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
         <v>11</v>
@@ -756,7 +823,7 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI2" t="n">
         <v>24</v>
@@ -765,7 +832,7 @@
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
         <v>6</v>
@@ -774,16 +841,16 @@
         <v>4</v>
       </c>
       <c r="AN2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>23</v>
@@ -804,7 +871,7 @@
         <v>12</v>
       </c>
       <c r="AX2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>10</v>
@@ -816,7 +883,7 @@
         <v>18</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -851,82 +918,82 @@
         <v>52</v>
       </c>
       <c r="E3" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>0.788</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
-        <v>77.5</v>
+        <v>77.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.485</v>
+        <v>0.484</v>
       </c>
       <c r="L3" t="n">
         <v>6.6</v>
       </c>
       <c r="M3" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.392</v>
+        <v>0.39</v>
       </c>
       <c r="O3" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="P3" t="n">
-        <v>25.8</v>
+        <v>26.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.777</v>
+        <v>0.773</v>
       </c>
       <c r="R3" t="n">
         <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T3" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U3" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="V3" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W3" t="n">
         <v>8.4</v>
       </c>
       <c r="X3" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
         <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.8</v>
+        <v>101.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -956,19 +1023,19 @@
         <v>19</v>
       </c>
       <c r="AN3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS3" t="n">
         <v>4</v>
@@ -980,7 +1047,7 @@
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
@@ -995,7 +1062,7 @@
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -1030,76 +1097,76 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="n">
         <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>0.38</v>
+        <v>0.388</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
       </c>
       <c r="I4" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="J4" t="n">
-        <v>76.09999999999999</v>
+        <v>76</v>
       </c>
       <c r="K4" t="n">
         <v>0.448</v>
       </c>
       <c r="L4" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.361</v>
+        <v>0.358</v>
       </c>
       <c r="O4" t="n">
-        <v>18.1</v>
+        <v>18.4</v>
       </c>
       <c r="P4" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.741</v>
+        <v>0.743</v>
       </c>
       <c r="R4" t="n">
         <v>10.6</v>
       </c>
       <c r="S4" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="T4" t="n">
-        <v>38.9</v>
+        <v>39.1</v>
       </c>
       <c r="U4" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V4" t="n">
         <v>15.6</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y4" t="n">
         <v>6.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AB4" t="n">
         <v>91.90000000000001</v>
@@ -1108,7 +1175,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
@@ -1129,34 +1196,34 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
         <v>25</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>23</v>
       </c>
       <c r="AP4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ4" t="n">
         <v>27</v>
       </c>
       <c r="AR4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS4" t="n">
         <v>28</v>
       </c>
       <c r="AT4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AU4" t="n">
         <v>15</v>
@@ -1165,7 +1232,7 @@
         <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX4" t="n">
         <v>18</v>
@@ -1174,7 +1241,7 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA4" t="n">
         <v>13</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
         <v>29</v>
       </c>
       <c r="G5" t="n">
-        <v>0.42</v>
+        <v>0.431</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
@@ -1230,46 +1297,46 @@
         <v>37.8</v>
       </c>
       <c r="J5" t="n">
-        <v>84.3</v>
+        <v>84</v>
       </c>
       <c r="K5" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L5" t="n">
         <v>6.1</v>
       </c>
       <c r="M5" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N5" t="n">
         <v>0.376</v>
       </c>
       <c r="O5" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="P5" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
         <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U5" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="V5" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X5" t="n">
         <v>5.7</v>
@@ -1278,19 +1345,19 @@
         <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.2</v>
+        <v>-1.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
@@ -1302,7 +1369,7 @@
         <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -1311,7 +1378,7 @@
         <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL5" t="n">
         <v>19</v>
@@ -1320,13 +1387,13 @@
         <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
         <v>9</v>
@@ -1335,13 +1402,13 @@
         <v>7</v>
       </c>
       <c r="AS5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV5" t="n">
         <v>19</v>
@@ -1356,16 +1423,16 @@
         <v>28</v>
       </c>
       <c r="AZ5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB5" t="n">
         <v>12</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -1409,70 +1476,70 @@
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J6" t="n">
-        <v>78.59999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.385</v>
+        <v>0.381</v>
       </c>
       <c r="O6" t="n">
-        <v>18.6</v>
+        <v>18.9</v>
       </c>
       <c r="P6" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R6" t="n">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T6" t="n">
         <v>41.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="V6" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X6" t="n">
         <v>5.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.2</v>
+        <v>101</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
         <v>3</v>
@@ -1490,22 +1557,22 @@
         <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
         <v>5</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM6" t="n">
         <v>5</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
         <v>16</v>
@@ -1514,7 +1581,7 @@
         <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1526,10 +1593,10 @@
         <v>20</v>
       </c>
       <c r="AV6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX6" t="n">
         <v>5</v>
@@ -1538,7 +1605,7 @@
         <v>4</v>
       </c>
       <c r="AZ6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA6" t="n">
         <v>21</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>1</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
         <v>9</v>
@@ -1669,7 +1736,7 @@
         <v>14</v>
       </c>
       <c r="AI7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ7" t="n">
         <v>7</v>
@@ -1699,19 +1766,19 @@
         <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
         <v>5</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
         <v>9</v>
       </c>
       <c r="AW7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX7" t="n">
         <v>7</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1866,7 +1933,7 @@
         <v>16</v>
       </c>
       <c r="AN8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,7 +1945,7 @@
         <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" t="n">
         <v>27</v>
       </c>
       <c r="F9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>0.551</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
@@ -1958,19 +2025,19 @@
         <v>35.9</v>
       </c>
       <c r="J9" t="n">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L9" t="n">
         <v>4.7</v>
       </c>
       <c r="M9" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O9" t="n">
         <v>17.1</v>
@@ -1979,55 +2046,55 @@
         <v>22.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.748</v>
+        <v>0.747</v>
       </c>
       <c r="R9" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S9" t="n">
         <v>29.8</v>
       </c>
       <c r="T9" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="U9" t="n">
         <v>20.2</v>
       </c>
       <c r="V9" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X9" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y9" t="n">
         <v>4</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG9" t="n">
         <v>13</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>14</v>
       </c>
       <c r="AH9" t="n">
         <v>12</v>
@@ -2051,16 +2118,16 @@
         <v>23</v>
       </c>
       <c r="AO9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ9" t="n">
         <v>25</v>
       </c>
       <c r="AR9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS9" t="n">
         <v>17</v>
@@ -2069,7 +2136,7 @@
         <v>21</v>
       </c>
       <c r="AU9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2078,7 +2145,7 @@
         <v>27</v>
       </c>
       <c r="AX9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY9" t="n">
         <v>5</v>
@@ -2087,13 +2154,13 @@
         <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
       </c>
       <c r="BC9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -2122,88 +2189,88 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="n">
         <v>35</v>
       </c>
       <c r="G10" t="n">
-        <v>0.327</v>
+        <v>0.314</v>
       </c>
       <c r="H10" t="n">
         <v>48.7</v>
       </c>
       <c r="I10" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J10" t="n">
-        <v>85.90000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L10" t="n">
         <v>6.5</v>
       </c>
       <c r="M10" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.366</v>
+        <v>0.364</v>
       </c>
       <c r="O10" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="P10" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.772</v>
+        <v>0.771</v>
       </c>
       <c r="R10" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S10" t="n">
         <v>30.4</v>
       </c>
       <c r="T10" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U10" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V10" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W10" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X10" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z10" t="n">
         <v>22.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>-4.1</v>
+        <v>-4.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF10" t="n">
         <v>25</v>
@@ -2245,16 +2312,16 @@
         <v>8</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AU10" t="n">
         <v>16</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW10" t="n">
         <v>7</v>
@@ -2263,13 +2330,13 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB10" t="n">
         <v>2</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>2.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2403,7 +2470,7 @@
         <v>16</v>
       </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL11" t="n">
         <v>9</v>
@@ -2424,10 +2491,10 @@
         <v>5</v>
       </c>
       <c r="AR11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT11" t="n">
         <v>6</v>
@@ -2457,7 +2524,7 @@
         <v>19</v>
       </c>
       <c r="BC11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" t="n">
         <v>20</v>
       </c>
       <c r="F12" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" t="n">
-        <v>0.385</v>
+        <v>0.392</v>
       </c>
       <c r="H12" t="n">
         <v>48.6</v>
@@ -2504,37 +2571,37 @@
         <v>38.9</v>
       </c>
       <c r="J12" t="n">
-        <v>86</v>
+        <v>86.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L12" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M12" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N12" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O12" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="P12" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R12" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T12" t="n">
-        <v>43.2</v>
+        <v>43.4</v>
       </c>
       <c r="U12" t="n">
         <v>22.7</v>
@@ -2546,7 +2613,7 @@
         <v>7</v>
       </c>
       <c r="X12" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y12" t="n">
         <v>5.4</v>
@@ -2555,16 +2622,16 @@
         <v>23.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.9</v>
+        <v>104.7</v>
       </c>
       <c r="AC12" t="n">
         <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2576,7 +2643,7 @@
         <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI12" t="n">
         <v>3</v>
@@ -2597,10 +2664,10 @@
         <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
         <v>4</v>
@@ -2609,10 +2676,10 @@
         <v>14</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU12" t="n">
         <v>5</v>
@@ -2621,7 +2688,7 @@
         <v>22</v>
       </c>
       <c r="AW12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
@@ -2630,16 +2697,16 @@
         <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
         <v>4</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>-7.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF13" t="n">
         <v>28</v>
@@ -2776,13 +2843,13 @@
         <v>17</v>
       </c>
       <c r="AN13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP13" t="n">
         <v>25</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>26</v>
       </c>
       <c r="AQ13" t="n">
         <v>22</v>
@@ -2818,7 +2885,7 @@
         <v>26</v>
       </c>
       <c r="BB13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC13" t="n">
         <v>28</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -2865,55 +2932,55 @@
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.5</v>
+        <v>40.3</v>
       </c>
       <c r="J14" t="n">
-        <v>84.40000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.48</v>
+        <v>0.479</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M14" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.371</v>
+        <v>0.379</v>
       </c>
       <c r="O14" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="P14" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R14" t="n">
         <v>12.3</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T14" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U14" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="V14" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="W14" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X14" t="n">
         <v>5.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z14" t="n">
         <v>20.2</v>
@@ -2922,13 +2989,13 @@
         <v>23</v>
       </c>
       <c r="AB14" t="n">
-        <v>109</v>
+        <v>108.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2958,10 +3025,10 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP14" t="n">
         <v>5</v>
@@ -2973,7 +3040,7 @@
         <v>4</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2982,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW14" t="n">
         <v>4</v>
@@ -2994,7 +3061,7 @@
         <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA14" t="n">
         <v>4</v>
@@ -3003,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3122,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
         <v>29</v>
@@ -3131,7 +3198,7 @@
         <v>28</v>
       </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL15" t="n">
         <v>28</v>
@@ -3143,10 +3210,10 @@
         <v>28</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ15" t="n">
         <v>24</v>
@@ -3158,7 +3225,7 @@
         <v>26</v>
       </c>
       <c r="AT15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
@@ -3179,7 +3246,7 @@
         <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB15" t="n">
         <v>29</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" t="n">
         <v>23</v>
       </c>
       <c r="G16" t="n">
-        <v>0.54</v>
+        <v>0.531</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J16" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L16" t="n">
         <v>6.9</v>
@@ -3244,46 +3311,46 @@
         <v>19.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O16" t="n">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="P16" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.739</v>
+        <v>0.742</v>
       </c>
       <c r="R16" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S16" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T16" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="U16" t="n">
         <v>19.9</v>
       </c>
       <c r="V16" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="W16" t="n">
         <v>8.1</v>
       </c>
       <c r="X16" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB16" t="n">
         <v>96.59999999999999</v>
@@ -3292,28 +3359,28 @@
         <v>0.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
         <v>12</v>
@@ -3325,19 +3392,19 @@
         <v>20</v>
       </c>
       <c r="AO16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR16" t="n">
         <v>24</v>
       </c>
       <c r="AS16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT16" t="n">
         <v>25</v>
@@ -3355,10 +3422,10 @@
         <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ16" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA16" t="n">
         <v>25</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17" t="n">
         <v>24</v>
       </c>
       <c r="F17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G17" t="n">
-        <v>0.462</v>
+        <v>0.453</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3426,31 +3493,31 @@
         <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O17" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="P17" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.786</v>
+        <v>0.785</v>
       </c>
       <c r="R17" t="n">
         <v>12</v>
       </c>
       <c r="S17" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="U17" t="n">
         <v>21.2</v>
       </c>
       <c r="V17" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W17" t="n">
         <v>7.1</v>
@@ -3462,55 +3529,55 @@
         <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
       </c>
       <c r="AF17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH17" t="n">
         <v>17</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AI17" t="n">
         <v>17</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>18</v>
       </c>
       <c r="AJ17" t="n">
         <v>12</v>
       </c>
       <c r="AK17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL17" t="n">
         <v>23</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>24</v>
       </c>
       <c r="AM17" t="n">
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
         <v>8</v>
@@ -3519,19 +3586,19 @@
         <v>6</v>
       </c>
       <c r="AS17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT17" t="n">
         <v>15</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
         <v>16</v>
       </c>
       <c r="AW17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3540,16 +3607,16 @@
         <v>14</v>
       </c>
       <c r="AZ17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB17" t="n">
+        <v>18</v>
+      </c>
+      <c r="BC17" t="n">
         <v>17</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>16</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" t="n">
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" t="n">
-        <v>0.34</v>
+        <v>0.347</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
@@ -3605,28 +3672,28 @@
         <v>5.9</v>
       </c>
       <c r="M18" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.339</v>
+        <v>0.341</v>
       </c>
       <c r="O18" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P18" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R18" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S18" t="n">
         <v>29.7</v>
       </c>
       <c r="T18" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U18" t="n">
         <v>20.5</v>
@@ -3635,7 +3702,7 @@
         <v>14.3</v>
       </c>
       <c r="W18" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X18" t="n">
         <v>4.2</v>
@@ -3644,7 +3711,7 @@
         <v>6.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA18" t="n">
         <v>20.5</v>
@@ -3656,7 +3723,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE18" t="n">
         <v>24</v>
@@ -3689,10 +3756,10 @@
         <v>26</v>
       </c>
       <c r="AO18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP18" t="n">
         <v>18</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>17</v>
       </c>
       <c r="AQ18" t="n">
         <v>15</v>
@@ -3701,10 +3768,10 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU18" t="n">
         <v>18</v>
@@ -3728,7 +3795,7 @@
         <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC18" t="n">
         <v>24</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" t="n">
         <v>24</v>
       </c>
       <c r="F19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G19" t="n">
-        <v>0.462</v>
+        <v>0.471</v>
       </c>
       <c r="H19" t="n">
         <v>48.6</v>
@@ -3778,37 +3845,37 @@
         <v>35.5</v>
       </c>
       <c r="J19" t="n">
-        <v>80.2</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L19" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M19" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="N19" t="n">
         <v>0.381</v>
       </c>
       <c r="O19" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="P19" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R19" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S19" t="n">
         <v>29.7</v>
       </c>
       <c r="T19" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U19" t="n">
         <v>19.5</v>
@@ -3823,22 +3890,22 @@
         <v>4.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z19" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-1.6</v>
+        <v>-1.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
@@ -3850,16 +3917,16 @@
         <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI19" t="n">
         <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>5</v>
@@ -3868,37 +3935,37 @@
         <v>6</v>
       </c>
       <c r="AN19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR19" t="n">
         <v>12</v>
       </c>
       <c r="AS19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT19" t="n">
         <v>18</v>
       </c>
       <c r="AU19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY19" t="n">
         <v>17</v>
@@ -3907,10 +3974,10 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB19" t="n">
         <v>17</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>18</v>
       </c>
       <c r="BC19" t="n">
         <v>18</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" t="n">
         <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>0.625</v>
+        <v>0.617</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
@@ -3960,43 +4027,43 @@
         <v>34.9</v>
       </c>
       <c r="J20" t="n">
-        <v>76.40000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M20" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.388</v>
+        <v>0.391</v>
       </c>
       <c r="O20" t="n">
-        <v>18.7</v>
+        <v>18.4</v>
       </c>
       <c r="P20" t="n">
-        <v>23</v>
+        <v>22.6</v>
       </c>
       <c r="Q20" t="n">
         <v>0.8129999999999999</v>
       </c>
       <c r="R20" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S20" t="n">
         <v>28.9</v>
       </c>
       <c r="T20" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="U20" t="n">
         <v>19.8</v>
       </c>
       <c r="V20" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W20" t="n">
         <v>7.6</v>
@@ -4011,25 +4078,25 @@
         <v>20.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB20" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC20" t="n">
         <v>2.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF20" t="n">
         <v>7</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
@@ -4041,7 +4108,7 @@
         <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>8</v>
@@ -4050,13 +4117,13 @@
         <v>10</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP20" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
@@ -4068,16 +4135,16 @@
         <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU20" t="n">
         <v>27</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX20" t="n">
         <v>23</v>
@@ -4086,16 +4153,16 @@
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA20" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" t="n">
         <v>21</v>
       </c>
       <c r="F21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G21" t="n">
-        <v>0.42</v>
+        <v>0.429</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
@@ -4142,40 +4209,40 @@
         <v>37.9</v>
       </c>
       <c r="J21" t="n">
-        <v>86</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L21" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="M21" t="n">
         <v>28.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="O21" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P21" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.802</v>
+        <v>0.8</v>
       </c>
       <c r="R21" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T21" t="n">
-        <v>42.3</v>
+        <v>42.6</v>
       </c>
       <c r="U21" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V21" t="n">
         <v>15</v>
@@ -4187,34 +4254,34 @@
         <v>2.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA21" t="n">
         <v>19.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.3</v>
+        <v>-2.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
         <v>7</v>
@@ -4232,31 +4299,31 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO21" t="n">
         <v>24</v>
       </c>
       <c r="AP21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
         <v>7</v>
       </c>
       <c r="AR21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT21" t="n">
         <v>9</v>
       </c>
-      <c r="AT21" t="n">
+      <c r="AU21" t="n">
         <v>10</v>
       </c>
-      <c r="AU21" t="n">
-        <v>9</v>
-      </c>
       <c r="AV21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
         <v>14</v>
@@ -4265,10 +4332,10 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" t="n">
         <v>38</v>
       </c>
       <c r="G22" t="n">
-        <v>0.255</v>
+        <v>0.24</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J22" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.452</v>
+        <v>0.45</v>
       </c>
       <c r="L22" t="n">
         <v>4</v>
@@ -4339,7 +4406,7 @@
         <v>0.373</v>
       </c>
       <c r="O22" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="P22" t="n">
         <v>25.9</v>
@@ -4357,10 +4424,10 @@
         <v>43.1</v>
       </c>
       <c r="U22" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V22" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="W22" t="n">
         <v>6.8</v>
@@ -4372,19 +4439,19 @@
         <v>5.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB22" t="n">
-        <v>97.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>-5.6</v>
+        <v>-5.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
@@ -4396,16 +4463,16 @@
         <v>27</v>
       </c>
       <c r="AH22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI22" t="n">
         <v>15</v>
       </c>
-      <c r="AI22" t="n">
-        <v>14</v>
-      </c>
       <c r="AJ22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
@@ -4414,13 +4481,13 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
         <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ22" t="n">
         <v>13</v>
@@ -4444,7 +4511,7 @@
         <v>23</v>
       </c>
       <c r="AX22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY22" t="n">
         <v>22</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" t="n">
         <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>0.76</v>
+        <v>0.755</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
@@ -4506,31 +4573,31 @@
         <v>36.4</v>
       </c>
       <c r="J23" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="K23" t="n">
         <v>0.463</v>
       </c>
       <c r="L23" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="M23" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.399</v>
+        <v>0.4</v>
       </c>
       <c r="O23" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="P23" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.721</v>
+        <v>0.722</v>
       </c>
       <c r="R23" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S23" t="n">
         <v>33.2</v>
@@ -4539,7 +4606,7 @@
         <v>43.2</v>
       </c>
       <c r="U23" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="V23" t="n">
         <v>13.9</v>
@@ -4548,7 +4615,7 @@
         <v>7.1</v>
       </c>
       <c r="X23" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y23" t="n">
         <v>3.8</v>
@@ -4560,13 +4627,13 @@
         <v>22.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
         <v>16</v>
@@ -4587,7 +4654,7 @@
         <v>20</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4599,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="AO23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP23" t="n">
         <v>6</v>
@@ -4614,10 +4681,10 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV23" t="n">
         <v>13</v>
@@ -4641,7 +4708,7 @@
         <v>7</v>
       </c>
       <c r="BC23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>0.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AE24" t="n">
         <v>16</v>
@@ -4763,10 +4830,10 @@
         <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK24" t="n">
         <v>11</v>
@@ -4778,13 +4845,13 @@
         <v>29</v>
       </c>
       <c r="AN24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ24" t="n">
         <v>26</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25" t="n">
         <v>21</v>
       </c>
       <c r="G25" t="n">
-        <v>0.571</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4870,43 +4937,43 @@
         <v>38.7</v>
       </c>
       <c r="J25" t="n">
-        <v>78.2</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K25" t="n">
         <v>0.496</v>
       </c>
       <c r="L25" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M25" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="N25" t="n">
-        <v>0.384</v>
+        <v>0.385</v>
       </c>
       <c r="O25" t="n">
         <v>21</v>
       </c>
       <c r="P25" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S25" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T25" t="n">
         <v>41.6</v>
       </c>
       <c r="U25" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V25" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W25" t="n">
         <v>6.4</v>
@@ -4915,7 +4982,7 @@
         <v>4.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z25" t="n">
         <v>20.5</v>
@@ -4927,10 +4994,10 @@
         <v>104.9</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4939,7 +5006,7 @@
         <v>11</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
         <v>22</v>
@@ -4954,22 +5021,22 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM25" t="n">
         <v>20</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP25" t="n">
         <v>4</v>
       </c>
       <c r="AQ25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR25" t="n">
         <v>27</v>
@@ -4981,22 +5048,22 @@
         <v>14</v>
       </c>
       <c r="AU25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV25" t="n">
         <v>29</v>
       </c>
       <c r="AW25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA25" t="n">
         <v>7</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -5037,40 +5104,40 @@
         <v>49</v>
       </c>
       <c r="E26" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G26" t="n">
-        <v>0.633</v>
+        <v>0.612</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.4</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.46</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O26" t="n">
         <v>19.1</v>
       </c>
-      <c r="N26" t="n">
-        <v>0.381</v>
-      </c>
-      <c r="O26" t="n">
-        <v>19.2</v>
-      </c>
       <c r="P26" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="Q26" t="n">
         <v>0.763</v>
@@ -5085,7 +5152,7 @@
         <v>40.8</v>
       </c>
       <c r="U26" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V26" t="n">
         <v>12.9</v>
@@ -5094,46 +5161,46 @@
         <v>6.9</v>
       </c>
       <c r="X26" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z26" t="n">
         <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AE26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AK26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -5142,13 +5209,13 @@
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
         <v>16</v>
       </c>
       <c r="AP26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ26" t="n">
         <v>18</v>
@@ -5163,7 +5230,7 @@
         <v>19</v>
       </c>
       <c r="AU26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AV26" t="n">
         <v>6</v>
@@ -5172,7 +5239,7 @@
         <v>22</v>
       </c>
       <c r="AX26" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AY26" t="n">
         <v>2</v>
@@ -5181,10 +5248,10 @@
         <v>16</v>
       </c>
       <c r="BA26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -5216,61 +5283,61 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" t="n">
         <v>11</v>
       </c>
       <c r="F27" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G27" t="n">
-        <v>0.212</v>
+        <v>0.216</v>
       </c>
       <c r="H27" t="n">
         <v>48.7</v>
       </c>
       <c r="I27" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="J27" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.445</v>
+        <v>0.443</v>
       </c>
       <c r="L27" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M27" t="n">
         <v>18.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.355</v>
+        <v>0.349</v>
       </c>
       <c r="O27" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="P27" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="Q27" t="n">
         <v>0.805</v>
       </c>
       <c r="R27" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S27" t="n">
         <v>28.5</v>
       </c>
       <c r="T27" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="U27" t="n">
         <v>20</v>
       </c>
       <c r="V27" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W27" t="n">
         <v>6.8</v>
@@ -5285,58 +5352,58 @@
         <v>24</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-9.6</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
         <v>29</v>
       </c>
       <c r="AF27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK27" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AL27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM27" t="n">
         <v>14</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
         <v>6</v>
       </c>
       <c r="AP27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ27" t="n">
         <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS27" t="n">
         <v>27</v>
@@ -5363,7 +5430,7 @@
         <v>30</v>
       </c>
       <c r="BA27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB27" t="n">
         <v>13</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F28" t="n">
         <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>0.694</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
       </c>
       <c r="I28" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J28" t="n">
-        <v>79.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L28" t="n">
         <v>8</v>
@@ -5428,16 +5495,16 @@
         <v>20.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.391</v>
+        <v>0.392</v>
       </c>
       <c r="O28" t="n">
         <v>15.8</v>
       </c>
       <c r="P28" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.766</v>
+        <v>0.763</v>
       </c>
       <c r="R28" t="n">
         <v>8.699999999999999</v>
@@ -5458,10 +5525,10 @@
         <v>5.9</v>
       </c>
       <c r="X28" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z28" t="n">
         <v>18.8</v>
@@ -5470,16 +5537,16 @@
         <v>18.9</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF28" t="n">
         <v>5</v>
@@ -5500,13 +5567,13 @@
         <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM28" t="n">
         <v>7</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5521,13 +5588,13 @@
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT28" t="n">
         <v>22</v>
       </c>
       <c r="AU28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -5688,13 +5755,13 @@
         <v>21</v>
       </c>
       <c r="AN29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
         <v>17</v>
       </c>
       <c r="AP29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5706,7 +5773,7 @@
         <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AU29" t="n">
         <v>8</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -5762,46 +5829,46 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" t="n">
         <v>29</v>
       </c>
       <c r="F30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.569</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
       </c>
       <c r="I30" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J30" t="n">
         <v>79.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L30" t="n">
         <v>4.8</v>
       </c>
       <c r="M30" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="N30" t="n">
-        <v>0.339</v>
+        <v>0.341</v>
       </c>
       <c r="O30" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="P30" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R30" t="n">
         <v>11.9</v>
@@ -5813,13 +5880,13 @@
         <v>41.2</v>
       </c>
       <c r="U30" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="V30" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W30" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X30" t="n">
         <v>4.7</v>
@@ -5834,28 +5901,28 @@
         <v>23.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF30" t="n">
         <v>14</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
         <v>16</v>
       </c>
       <c r="AI30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ30" t="n">
         <v>17</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5882,7 +5949,7 @@
         <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
         <v>22</v>
@@ -5894,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
@@ -5906,7 +5973,7 @@
         <v>16</v>
       </c>
       <c r="AZ30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA30" t="n">
         <v>1</v>
@@ -5915,7 +5982,7 @@
         <v>8</v>
       </c>
       <c r="BC30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
@@ -5944,61 +6011,61 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
         <v>40</v>
       </c>
       <c r="G31" t="n">
-        <v>0.216</v>
+        <v>0.2</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J31" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L31" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M31" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.327</v>
+        <v>0.321</v>
       </c>
       <c r="O31" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="P31" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.761</v>
+        <v>0.759</v>
       </c>
       <c r="R31" t="n">
         <v>11.9</v>
       </c>
       <c r="S31" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="T31" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="U31" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V31" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W31" t="n">
         <v>7.5</v>
@@ -6007,37 +6074,37 @@
         <v>3.9</v>
       </c>
       <c r="Y31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>94.7</v>
+        <v>94.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.7</v>
+        <v>-7.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF31" t="n">
         <v>29</v>
       </c>
       <c r="AG31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
         <v>9</v>
@@ -6052,19 +6119,19 @@
         <v>24</v>
       </c>
       <c r="AN31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO31" t="n">
         <v>29</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>28</v>
       </c>
       <c r="AP31" t="n">
         <v>28</v>
       </c>
       <c r="AQ31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS31" t="n">
         <v>29</v>
@@ -6088,13 +6155,13 @@
         <v>18</v>
       </c>
       <c r="AZ31" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA31" t="n">
         <v>28</v>
       </c>
       <c r="BB31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-8-2008-09</t>
+          <t>2009-02-08</t>
         </is>
       </c>
     </row>
